--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -184,13 +184,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
     </font>
@@ -403,16 +403,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="38.25" customFormat="1" s="1">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>35001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="14" t="s">
         <v>38</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="14" t="s">
         <v>42</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="14" t="s">
         <v>43</v>
       </c>
